--- a/gd/副本系统/副本配置结构.xlsx
+++ b/gd/副本系统/副本配置结构.xlsx
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="246">
   <si>
     <t>TEXT</t>
   </si>
@@ -701,15 +701,313 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>类型为num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP：boss对局进程切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照bossValiP2的条件，返回0，则结束当前进程，进入进程,3；若返回1，则结束当前进程，进入进程4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个为一组，说明一个进程的情况，其中数字标示是第几进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局胜利条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本的稀有怪id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪概率，使用浮点数，20%填写0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processRare1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processRare4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRare1ClearBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRare4ClearBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processRareAnimation：稀有怪对局进程动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有时不用填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRareClearBuff：稀有怪对局进程是否清buff，清buff填写1，不清buff填写0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP：稀有怪对局进程切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写格式同boss对局进程切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局胜利条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表导出名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre1Animation</t>
+  </si>
+  <si>
+    <t>pre1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processAnimation：boss对局进程动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre1Animation：boss对局前置动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRareAnimation：稀有怪对局前置动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre2Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程1前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程2前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程3前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre3Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程4前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程5前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程1前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程2前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程3前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程4前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程5前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare2Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare3Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有剧情动画时空着不用填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局开始剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局结束剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局开始剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局结束剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局结束剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局开始剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局开始剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局结束剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryEndAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryEndAnimation</t>
+  </si>
+  <si>
+    <t>rareStoryEndAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程5切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程5切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isClearBuff：boss对局进程是否清buff，清buff填写1，不清buff填写0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型为num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP：boss对局进程切换条件</t>
+    <t>rareValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个稀有怪对局最多可以设计5个进程，不需要的进程处空着不填写，但是isClearBuff一定要填写（num类型的项不能为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"func":"bossValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计的最后一个进程的进程切换条件填写方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -717,285 +1015,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>举例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"func":"bossValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照bossValiP2的条件，返回0，则结束当前进程，进入进程,3；若返回1，则结束当前进程，进入进程4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个为一组，说明一个进程的情况，其中数字标示是第几进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个boss对局最多可以设计5个进程，不需要的进程处空着不填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计的最后一个进程不需要填写进程切换条件，直接判定boss对局胜利条件（因此没有设置bossValiP5项）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局胜利条件，填写调用的条件组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本的稀有怪id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪概率，使用浮点数，20%填写0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processRare1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processRare4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRare1ClearBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRare4ClearBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processRareAnimation：稀有怪对局进程动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有时不用填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRareClearBuff：稀有怪对局进程是否清buff，清buff填写1，不清buff填写0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP：稀有怪对局进程切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写格式同boss对局进程切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个稀有怪对局最多可以设计5个进程，不需要的进程处空着不填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计的最后一个进程不需要填写进程切换条件，直接判定稀有怪对局胜利条件（因此没有设置rareValiP5项）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局胜利条件，填写调用的条件组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置表导出名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre1Animation</t>
-  </si>
-  <si>
-    <t>pre1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processAnimation：boss对局进程动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre1Animation：boss对局前置动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRareAnimation：稀有怪对局前置动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre2Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程1前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程2前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程3前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre3Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程4前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程5前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程1前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程2前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程3前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程4前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程5前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare2Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare3Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有剧情动画时空着不用填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局开始剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局结束剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局开始剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局结束剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局结束剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局开始剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局开始剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局结束剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryEndAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareStoryEndAnimation</t>
-  </si>
-  <si>
-    <t>rareStoryEndAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryStartAnimation</t>
+    <t xml:space="preserve"> {"func":"对局胜利条件组id","ret":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个boss对局最多可以设计5个进程，不需要的进程处空着不填写，但是对应的isClearBuff一定要填写（num类型的项不能为空）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1055,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1087,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ126"/>
+  <dimension ref="A1:BS128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1397,7 +1424,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>0</v>
@@ -1531,29 +1558,29 @@
         <v>0</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="AW1" s="1" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BA1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,11 +1588,11 @@
         <v>0</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BE1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,11 +1600,11 @@
         <v>0</v>
       </c>
       <c r="BG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BI1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,11 +1612,11 @@
         <v>0</v>
       </c>
       <c r="BK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BM1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1597,16 +1624,22 @@
         <v>0</v>
       </c>
       <c r="BO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BP1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1677,10 +1710,10 @@
         <v>25</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>26</v>
@@ -1692,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>29</v>
@@ -1704,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>32</v>
@@ -1716,7 +1749,7 @@
         <v>34</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>35</v>
@@ -1728,7 +1761,7 @@
         <v>37</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>38</v>
@@ -1737,85 +1770,91 @@
         <v>39</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="AT2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="AW2" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="BB2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="BF2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BI2" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="BJ2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="BN2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BQ2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="BS2" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -1886,10 +1925,10 @@
         <v>76</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>77</v>
@@ -1901,7 +1940,7 @@
         <v>79</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>80</v>
@@ -1913,7 +1952,7 @@
         <v>82</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>83</v>
@@ -1925,7 +1964,7 @@
         <v>85</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>86</v>
@@ -1937,7 +1976,7 @@
         <v>88</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>89</v>
@@ -1946,85 +1985,91 @@
         <v>90</v>
       </c>
       <c r="AR3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="AT3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="AW3" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AX3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BA3" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="BB3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BE3" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="BF3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BI3" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="BJ3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BM3" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="BN3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BQ3" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="BS3" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -2121,78 +2166,78 @@
       <c r="AQ4" s="1">
         <v>0</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AV4" s="2">
         <v>0.2</v>
       </c>
-      <c r="AV4" s="2"/>
-      <c r="AZ4" s="1" t="s">
+      <c r="AW4" s="2"/>
+      <c r="BA4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BM4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>130</v>
       </c>
@@ -2414,12 +2459,12 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C58" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
@@ -2429,21 +2474,21 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C60" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
@@ -2484,10 +2529,13 @@
       <c r="E64" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="H64" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.15">
@@ -2502,7 +2550,7 @@
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.15">
@@ -2517,17 +2565,17 @@
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D73" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.15">
@@ -2537,277 +2585,312 @@
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D76" s="1" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E78" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C81" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C82" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C85" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C88" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C89" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C90" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C92" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="1" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C82" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C84" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C85" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B86" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C87" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C88" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B93" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C95" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C98" s="1" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C99" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C100" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B100" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C105" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D106" s="1" t="s">
-        <v>163</v>
+      <c r="C106" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D107" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D108" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C108" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E109" s="1" t="s">
-        <v>186</v>
+      <c r="C109" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E110" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E111" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C111" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D112" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C113" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D114" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D113" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C114" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D115" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D115" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D116" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C118" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C119" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B120" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C120" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C121" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="1" t="s">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C123" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C124" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B123" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C124" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="1" t="s">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B125" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C126" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C127" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="1" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C128" s="1" t="s">
         <v>158</v>
       </c>
     </row>

--- a/gd/副本系统/副本配置结构.xlsx
+++ b/gd/副本系统/副本配置结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
     <author>Hongzhi</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="255">
   <si>
     <t>TEXT</t>
   </si>
@@ -368,15 +368,9 @@
     <t>#怪物数量</t>
   </si>
   <si>
-    <t>#怪物1</t>
-  </si>
-  <si>
     <t>#只数</t>
   </si>
   <si>
-    <t>#怪物2</t>
-  </si>
-  <si>
     <t>#怪物3</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>#boss对局进程3是否清buff</t>
   </si>
   <si>
-    <t>#boss对局进程3切换条件</t>
-  </si>
-  <si>
     <t>#boss对局进程4进程动画</t>
   </si>
   <si>
@@ -437,33 +428,18 @@
     <t>#boss对局胜利条件</t>
   </si>
   <si>
-    <t>#稀有怪ID</t>
-  </si>
-  <si>
-    <t>#稀有怪概率</t>
-  </si>
-  <si>
     <t>#稀有怪对局进程1进程动画</t>
   </si>
   <si>
     <t>#稀有怪对局进程1是否清buff</t>
   </si>
   <si>
-    <t>#稀有怪对局进程1切换条件</t>
-  </si>
-  <si>
-    <t>#稀有怪对局进程2进程动画</t>
-  </si>
-  <si>
     <t>#稀有怪对局进程2是否清buff</t>
   </si>
   <si>
     <t>#稀有怪对局进程2切换条件</t>
   </si>
   <si>
-    <t>#稀有怪对局进程3进程动画</t>
-  </si>
-  <si>
     <t>#稀有怪对局进程3是否清buff</t>
   </si>
   <si>
@@ -480,12 +456,6 @@
   </si>
   <si>
     <t>#稀有怪对局进程5进程动画</t>
-  </si>
-  <si>
-    <t>#稀有怪对局进程5是否清buff</t>
-  </si>
-  <si>
-    <t>#稀有怪对局胜利条件</t>
   </si>
   <si>
     <t>demo</t>
@@ -501,358 +471,540 @@
     <t>sceneYunmengze</t>
   </si>
   <si>
+    <t>normalValiVic</t>
+  </si>
+  <si>
+    <t>bossJiuweihu</t>
+  </si>
+  <si>
+    <t>{"func":"rareValiP1","ret":[{"val":"1", "goto":"2"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"func":"rareValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP3;1|4</t>
+  </si>
+  <si>
+    <t>{"func":"rareValiP3","ret":[{"val":"1", "goto":"4"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiVic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareHundun</t>
+  </si>
+  <si>
+    <t>{"func":"rareValiP1","ret":[{"val":"1", "goto":"2"}]}</t>
+  </si>
+  <si>
+    <t>{"func":"rareValiP4","ret":[{"val":"1", "goto":"5"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写副本id，副本id包含难度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本名称，副本名称不能超过10个汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本等级，填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeCoef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量修正，填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害修正，填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验修正，填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱修正，填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本掉落，填写副本掉落表中的掉落表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["掉落表id1","掉落表id2",…]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若为空填 [ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局场景，填写调用的对局场景id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局数量，填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物数量，每个小怪对局会出现的怪物数量，填写数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster5Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物和怪物数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型分别为text和num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个monster和monsterAmount为一组，monster填写怪物id，monsterAmount说明对应怪物的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个副本最多出现5组，设计几组填写几组，设计不需要的组，怪物id和数量都填写0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪对局胜利条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本的boss的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有前置动画时空着不用填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is4ClearBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                没有时不用填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                类型为text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP：boss对局进程切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照bossValiP2的条件，返回0，则结束当前进程，进入进程,3；若返回1，则结束当前进程，进入进程4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个为一组，说明一个进程的情况，其中数字标示是第几进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局胜利条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本的稀有怪id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪概率，使用浮点数，20%填写0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型为float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processRare1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processRare4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRare1ClearBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRare4ClearBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processRareAnimation：稀有怪对局进程动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有时不用填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRareClearBuff：稀有怪对局进程是否清buff，清buff填写1，不清buff填写0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP：稀有怪对局进程切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写格式同boss对局进程切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局胜利条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表导出名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre1Animation</t>
+  </si>
+  <si>
+    <t>pre1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processAnimation：boss对局进程动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre1Animation：boss对局前置动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRareAnimation：稀有怪对局前置动画，填写该进程调用动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre2Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程1前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程2前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程3前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre3Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程4前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程5前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程5前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare1Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare2Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare3Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare4Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preRare5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有剧情动画时空着不用填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局结束剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局开始剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局开始剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局结束剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryEndAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryEndAnimation</t>
+  </si>
+  <si>
+    <t>rareStoryEndAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程5切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isClearBuff：boss对局进程是否清buff，清buff填写1，不清buff填写0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个稀有怪对局最多可以设计5个进程，不需要的进程处空着不填写，但是isClearBuff一定要填写（num类型的项不能为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"func":"bossValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计的最后一个进程的进程切换条件填写方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写格式为  {"func":"进程切换条件组id","ret":[{"val":"返回值1", "goto":"跳转目标进程1"},{"val":"返回值2", "goto":"跳转目标进程2"},…..]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"func":"对局胜利条件组id","ret":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个boss对局最多可以设计5个进程，不需要的进程处空着不填写，但是对应的isClearBuff一定要填写（num类型的项不能为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程3进程动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局开始剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局结束剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程3切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局开始剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#怪物2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#怪物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>monZhuyan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>monQingniao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>monBaize</t>
-  </si>
-  <si>
-    <t>normalValiVic</t>
-  </si>
-  <si>
-    <t>bossJiuweihu</t>
-  </si>
-  <si>
-    <t>{"func":"rareValiP1","ret":[{"val":"1", "goto":"2"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"func":"rareValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP3;1|4</t>
-  </si>
-  <si>
-    <t>{"func":"rareValiP3","ret":[{"val":"1", "goto":"4"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiVic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareHundun</t>
-  </si>
-  <si>
-    <t>{"func":"rareValiP1","ret":[{"val":"1", "goto":"2"}]}</t>
-  </si>
-  <si>
-    <t>{"func":"rareValiP4","ret":[{"val":"1", "goto":"5"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写副本id，副本id包含难度信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本名称，副本名称不能超过10个汉字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本等级，填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeCoef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量修正，填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害修正，填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验修正，填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱修正，填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本掉落，填写副本掉落表中的掉落表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["掉落表id1","掉落表id2",…]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若为空填 [ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局场景，填写调用的对局场景id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局数量，填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物数量，每个小怪对局会出现的怪物数量，填写数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster5Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物和怪物数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型分别为text和num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个monster和monsterAmount为一组，monster填写怪物id，monsterAmount说明对应怪物的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个副本最多出现5组，设计几组填写几组，设计不需要的组，怪物id和数量都填写0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪对局胜利条件，填写调用的条件组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本的boss的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有前置动画时空着不用填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is4ClearBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                没有时不用填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                类型为text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP：boss对局进程切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照bossValiP2的条件，返回0，则结束当前进程，进入进程,3；若返回1，则结束当前进程，进入进程4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个为一组，说明一个进程的情况，其中数字标示是第几进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局胜利条件，填写调用的条件组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本的稀有怪id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪概率，使用浮点数，20%填写0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型为float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processRare1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processRare4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRare1ClearBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRare4ClearBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processRareAnimation：稀有怪对局进程动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有时不用填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRareClearBuff：稀有怪对局进程是否清buff，清buff填写1，不清buff填写0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP：稀有怪对局进程切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写格式同boss对局进程切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局胜利条件，填写调用的条件组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置表导出名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre1Animation</t>
-  </si>
-  <si>
-    <t>pre1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processAnimation：boss对局进程动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre1Animation：boss对局前置动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRareAnimation：稀有怪对局前置动画，填写该进程调用动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre2Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程1前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程2前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程3前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre3Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程4前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程5前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareProbability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -864,6 +1016,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#稀有怪对局进程2进程动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#稀有怪对局进程3前置动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,118 +1028,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#稀有怪对局进程5前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare1Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare2Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare3Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare4Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preRare5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有剧情动画时空着不用填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局开始剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局结束剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局开始剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#稀有怪对局结束剧情动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss对局结束剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局开始剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局开始剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局结束剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryEndAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareStoryEndAnimation</t>
-  </si>
-  <si>
-    <t>rareStoryEndAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程5切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP5</t>
+    <t>#稀有怪对局胜利条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -991,35 +1040,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isClearBuff：boss对局进程是否清buff，清buff填写1，不清buff填写0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个稀有怪对局最多可以设计5个进程，不需要的进程处空着不填写，但是isClearBuff一定要填写（num类型的项不能为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"func":"bossValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计的最后一个进程的进程切换条件填写方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写格式为  {"func":"进程切换条件组id","ret":[{"val":"返回值1", "goto":"跳转目标进程1"},{"val":"返回值2", "goto":"跳转目标进程2"},…..]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"func":"对局胜利条件组id","ret":[]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个boss对局最多可以设计5个进程，不需要的进程处空着不填写，但是对应的isClearBuff一定要填写（num类型的项不能为空）</t>
+    <t>#稀有怪对局进程5是否清buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程1切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoGroup</t>
+  </si>
+  <si>
+    <t>dazhaoAdjust</t>
+  </si>
+  <si>
+    <t>一次大招攻击需要的出手次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招攻击次序调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写该副本怪物的一次大招攻击需要的出手次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写该副本怪物的大招攻击次序调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,12 +1104,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1079,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1090,6 +1143,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1396,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS128"/>
+  <dimension ref="A1:BU133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1415,16 +1471,17 @@
     <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" customWidth="1"/>
-    <col min="14" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="19.625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="18.5" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="19" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="1" customWidth="1"/>
+    <col min="16" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="19.625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="18.5" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,10 +1515,10 @@
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1492,50 +1549,50 @@
         <v>0</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AD1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AH1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AL1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,94 +1609,100 @@
         <v>0</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AY1" s="1" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BC1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BG1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BK1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BO1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BP1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BS1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1673,188 +1736,194 @@
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BF2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BO2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BS2" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="BU2" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -1888,193 +1957,199 @@
       <c r="K3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AK3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AW3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BF3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BG3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2092,10 +2167,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
@@ -2103,29 +2178,29 @@
       <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>113</v>
+      <c r="L4" s="1">
+        <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="O4" s="1">
         <v>3</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
+      <c r="R4" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -2133,138 +2208,144 @@
       <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA4" s="1">
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC4" s="1">
         <v>1</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AD4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG4" s="1">
         <v>1</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>122</v>
+      <c r="AH4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV4" s="2">
+        <v>109</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX4" s="2">
         <v>0.2</v>
       </c>
-      <c r="AW4" s="2"/>
-      <c r="BA4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BR4" s="1" t="s">
+      <c r="AY4" s="2"/>
+      <c r="BC4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
@@ -2274,12 +2355,12 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
@@ -2289,12 +2370,12 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
@@ -2304,12 +2385,12 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
@@ -2319,579 +2400,615 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D35" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C37" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="H67" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="H68" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="H69" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D72" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="1" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D73" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C48" s="1" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D75" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C77" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D78" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C49" s="1" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C79" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C50" s="1" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D81" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="D82" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C52" s="1" t="s">
+      <c r="E82" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E83" s="1" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C53" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C55" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C56" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C58" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C59" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C60" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C66" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C69" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D70" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C72" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D73" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C74" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D75" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D76" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D77" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E78" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C80" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C81" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C82" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C85" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="C87" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
         <v>222</v>
       </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C89" s="1" t="s">
-        <v>128</v>
+      <c r="B89" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C90" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="1" t="s">
-        <v>41</v>
+      <c r="C91" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C92" s="1" t="s">
-        <v>171</v>
+      <c r="B92" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C93" s="1" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
-        <v>42</v>
+      <c r="C94" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C96" s="1" t="s">
-        <v>173</v>
+      <c r="B96" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B97" s="1" t="s">
-        <v>231</v>
+      <c r="C97" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C98" s="1" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C99" s="1" t="s">
-        <v>156</v>
+      <c r="B99" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B101" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>210</v>
+      <c r="C101" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H102" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C103" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C104" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C105" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B107" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B103" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H103" s="1" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C106" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D107" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D108" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C109" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E110" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E111" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C112" s="1" t="s">
-        <v>182</v>
+      <c r="D112" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D113" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C114" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D115" s="1" t="s">
-        <v>156</v>
+      <c r="E115" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D116" s="1" t="s">
-        <v>184</v>
+      <c r="E116" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C117" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C118" s="1" t="s">
-        <v>169</v>
+      <c r="D118" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C119" s="1" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C120" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="D120" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B122" s="1" t="s">
-        <v>57</v>
+      <c r="D121" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C123" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C124" s="1" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B125" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="C125" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C126" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C127" s="1" t="s">
-        <v>128</v>
+      <c r="B127" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C128" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C129" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C131" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C132" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C133" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本系统/副本配置结构.xlsx
+++ b/gd/副本系统/副本配置结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="264">
   <si>
     <t>TEXT</t>
   </si>
@@ -1067,6 +1067,42 @@
   </si>
   <si>
     <t>填写该副本怪物的大招攻击次序调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局失败条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiVic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局失敗条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程刷怪、怪物状态置换配置方式待定，现缺少相应配置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1140,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,6 +1150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,6 +1188,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU133"/>
+  <dimension ref="A1:BW141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1481,7 +1526,7 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,30 +1668,30 @@
       <c r="AU1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BA1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BD1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,11 +1699,11 @@
         <v>0</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BH1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,11 +1711,11 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BL1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,11 +1723,11 @@
         <v>0</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BP1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,19 +1735,25 @@
         <v>0</v>
       </c>
       <c r="BR1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BT1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BU1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1844,86 +1895,92 @@
       <c r="AU2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW2" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2065,86 +2122,92 @@
       <c r="AU3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AV3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BV3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="BW3" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -2250,75 +2313,75 @@
       <c r="AU4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AY4" s="2">
         <v>0.2</v>
       </c>
-      <c r="AY4" s="2"/>
-      <c r="BC4" s="1" t="s">
+      <c r="AZ4" s="2"/>
+      <c r="BD4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BG4" s="1" t="s">
+      <c r="BH4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BK4" s="1" t="s">
+      <c r="BL4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BP4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BT4" s="1" t="s">
+      <c r="BU4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>117</v>
       </c>
@@ -2754,7 +2817,7 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
@@ -2768,248 +2831,311 @@
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C93" s="1" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C96" s="1" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C94" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C95" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C97" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C98" s="1" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C101" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C103" s="1" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C106" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C107" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C105" s="1" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C108" s="1" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B106" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B107" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B108" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B109" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C111" s="1" t="s">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C114" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D112" s="1" t="s">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D115" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D113" s="1" t="s">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D116" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C114" s="1" t="s">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C117" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E115" s="1" t="s">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E118" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E116" s="1" t="s">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E119" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C117" s="1" t="s">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C120" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D118" s="1" t="s">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D121" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C119" s="1" t="s">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C122" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D120" s="1" t="s">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D123" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D121" s="1" t="s">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D124" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C123" s="1" t="s">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C126" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C124" s="1" t="s">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C127" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C125" s="3" t="s">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C128" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3" t="s">
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="1" t="s">
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B130" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C128" s="1" t="s">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C131" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="1" t="s">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C132" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B130" s="1" t="s">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B133" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B136" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C131" s="1" t="s">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C137" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C132" s="1" t="s">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C138" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C133" s="1" t="s">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C139" s="1" t="s">
         <v>145</v>
       </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B141" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gd/副本系统/副本配置结构.xlsx
+++ b/gd/副本系统/副本配置结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="262">
   <si>
     <t>TEXT</t>
   </si>
@@ -606,22 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物和怪物数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型分别为text和num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个monster和monsterAmount为一组，monster填写怪物id，monsterAmount说明对应怪物的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个副本最多出现5组，设计几组填写几组，设计不需要的组，怪物id和数量都填写0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小怪对局胜利条件，填写调用的条件组id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -841,43 +825,252 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>preRare5Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有剧情动画时空着不用填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局结束剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局开始剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局开始剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局结束剧情动画，填写调用的动画id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryEndAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryEndAnimation</t>
+  </si>
+  <si>
+    <t>rareStoryEndAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossStoryStartAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程5切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isClearBuff：boss对局进程是否清buff，清buff填写1，不清buff填写0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个稀有怪对局最多可以设计5个进程，不需要的进程处空着不填写，但是isClearBuff一定要填写（num类型的项不能为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"func":"bossValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计的最后一个进程的进程切换条件填写方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写格式为  {"func":"进程切换条件组id","ret":[{"val":"返回值1", "goto":"跳转目标进程1"},{"val":"返回值2", "goto":"跳转目标进程2"},…..]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"func":"对局胜利条件组id","ret":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个boss对局最多可以设计5个进程，不需要的进程处空着不填写，但是对应的isClearBuff一定要填写（num类型的项不能为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程3进程动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局结束剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局进程3切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss对局开始剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#怪物2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#怪物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monZhuyan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monQingniao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monBaize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程1前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程2前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程2进程动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程3前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程4前置动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局结束剧情动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局胜利条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程5切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程5是否清buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#稀有怪对局进程1切换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoGroup</t>
+  </si>
+  <si>
+    <t>dazhaoAdjust</t>
+  </si>
+  <si>
+    <t>一次大招攻击需要的出手次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招攻击次序调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写该副本怪物的一次大招攻击需要的出手次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss对局失败条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiVic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有怪对局失敗条件，填写调用的条件组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rareValiFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程刷怪、怪物状态置换配置方式待定，现缺少相应配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>preRare4Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preRare5Animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有剧情动画时空着不用填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局结束剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局开始剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局开始剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局结束剧情动画，填写调用的动画id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryEndAnimation</t>
+    <t>rareProbability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -885,224 +1078,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rareStoryEndAnimation</t>
-  </si>
-  <si>
-    <t>rareStoryEndAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossStoryStartAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程5切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isClearBuff：boss对局进程是否清buff，清buff填写1，不清buff填写0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个稀有怪对局最多可以设计5个进程，不需要的进程处空着不填写，但是isClearBuff一定要填写（num类型的项不能为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"func":"bossValiP2","ret":[{"val":"0", "goto":"3"},{"val":"1", "goto":"4"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计的最后一个进程的进程切换条件填写方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写格式为  {"func":"进程切换条件组id","ret":[{"val":"返回值1", "goto":"跳转目标进程1"},{"val":"返回值2", "goto":"跳转目标进程2"},…..]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"func":"对局胜利条件组id","ret":[]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个boss对局最多可以设计5个进程，不需要的进程处空着不填写，但是对应的isClearBuff一定要填写（num类型的项不能为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程3进程动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#稀有怪对局开始剧情动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#boss对局结束剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局进程3切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#boss对局开始剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#怪物2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#怪物1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monZhuyan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monQingniao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monBaize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rareID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rareProbability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程1前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程2前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程2进程动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程3前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程4前置动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局结束剧情动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局胜利条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程5切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程5是否清buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#稀有怪对局进程1切换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhaoGroup</t>
-  </si>
-  <si>
-    <t>dazhaoAdjust</t>
-  </si>
-  <si>
-    <t>一次大招攻击需要的出手次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招攻击次序调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写该副本怪物的一次大招攻击需要的出手次数</t>
+    <t>monster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster1Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>填写该副本怪物的大招攻击次序调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss对局失败条件，填写调用的条件组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiVic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiFa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiFa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有怪对局失敗条件，填写调用的条件组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossValiFa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rareValiFa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程刷怪、怪物状态置换配置方式待定，现缺少相应配置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1497,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW141"/>
+  <dimension ref="A1:BW137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1603,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
@@ -1672,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>0</v>
@@ -1747,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="BV1" s="5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.15">
@@ -1788,16 +1780,16 @@
         <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>16</v>
@@ -1830,10 +1822,10 @@
         <v>25</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>26</v>
@@ -1845,7 +1837,7 @@
         <v>28</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>29</v>
@@ -1857,7 +1849,7 @@
         <v>31</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>32</v>
@@ -1869,7 +1861,7 @@
         <v>34</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>35</v>
@@ -1881,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>38</v>
@@ -1890,28 +1882,28 @@
         <v>39</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>43</v>
@@ -1923,7 +1915,7 @@
         <v>45</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>46</v>
@@ -1935,7 +1927,7 @@
         <v>48</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>49</v>
@@ -1947,7 +1939,7 @@
         <v>51</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>52</v>
@@ -1959,7 +1951,7 @@
         <v>54</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>55</v>
@@ -1968,16 +1960,16 @@
         <v>56</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="BU2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.15">
@@ -2015,19 +2007,19 @@
         <v>68</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>69</v>
@@ -2057,10 +2049,10 @@
         <v>74</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>75</v>
@@ -2072,7 +2064,7 @@
         <v>77</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>78</v>
@@ -2084,7 +2076,7 @@
         <v>80</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>81</v>
@@ -2093,10 +2085,10 @@
         <v>82</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>83</v>
@@ -2108,7 +2100,7 @@
         <v>85</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>86</v>
@@ -2117,7 +2109,7 @@
         <v>87</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>88</v>
@@ -2126,19 +2118,19 @@
         <v>88</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="BB3" s="1" t="s">
         <v>89</v>
@@ -2147,13 +2139,13 @@
         <v>90</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>91</v>
@@ -2162,10 +2154,10 @@
         <v>92</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>93</v>
@@ -2174,7 +2166,7 @@
         <v>94</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="BN3" s="1" t="s">
         <v>95</v>
@@ -2186,25 +2178,25 @@
         <v>97</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="BV3" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.15">
@@ -2248,19 +2240,19 @@
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O4" s="1">
         <v>3</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="1">
         <v>3</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="S4" s="1">
         <v>3</v>
@@ -2338,12 +2330,12 @@
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.15">
@@ -2531,7 +2523,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2541,7 +2533,7 @@
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2549,7 +2541,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2559,13 +2551,13 @@
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2568,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2587,555 +2579,535 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C51" s="1" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C52" s="1" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C54" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C53" s="1" t="s">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C54" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C59" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C60" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C58" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C60" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C61" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C63" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
-        <v>143</v>
+      <c r="H64" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C65" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C67" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="1" t="s">
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>212</v>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C71" s="1" t="s">
-        <v>179</v>
+      <c r="D71" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D73" s="1" t="s">
-        <v>151</v>
+      <c r="C73" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C74" s="1" t="s">
-        <v>178</v>
+      <c r="D74" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D75" s="1" t="s">
-        <v>150</v>
+      <c r="C75" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D76" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C77" s="1" t="s">
-        <v>216</v>
+      <c r="D77" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C79" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D80" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D81" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D82" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>219</v>
+      <c r="C82" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="E83" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="C83" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C85" s="1" t="s">
-        <v>156</v>
+      <c r="B85" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C86" s="1" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C87" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="C87" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="B88" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C90" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C91" s="1" t="s">
-        <v>143</v>
+      <c r="B91" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="C92" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="C93" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="C94" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C96" s="1" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C97" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C98" s="1" t="s">
-        <v>199</v>
+      <c r="B98" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
-        <v>41</v>
+      <c r="C99" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C100" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C101" s="1" t="s">
-        <v>143</v>
+      <c r="B101" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B102" s="1" t="s">
-        <v>42</v>
+      <c r="C102" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C103" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C106" s="1" t="s">
-        <v>203</v>
+      <c r="B106" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C107" s="1" t="s">
-        <v>143</v>
+      <c r="B107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C108" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B109" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>193</v>
+      <c r="E108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B110" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>55</v>
+      <c r="C110" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D112" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C113" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="1" t="s">
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E114" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B112" s="1" t="s">
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E115" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C116" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" s="1" t="s">
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D117" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C118" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C114" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D115" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D116" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C117" s="1" t="s">
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D119" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D120" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E118" s="1" t="s">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C122" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C123" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C124" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C127" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E119" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C120" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D121" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C122" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D123" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D124" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C126" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C127" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C128" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B130" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C131" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C132" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B134" s="5"/>
-      <c r="C134" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C128" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B131" s="5"/>
+      <c r="C131" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B136" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C137" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C138" s="1" t="s">
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B132" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C133" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C134" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C139" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B141" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C135" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B137" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
